--- a/modified_data/추출된_역정보.xlsx
+++ b/modified_data/추출된_역정보.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/modified_data/추출된_역정보.xlsx
+++ b/modified_data/추출된_역정보.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B762"/>
+  <dimension ref="A1:B633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>시청</t>
+          <t>을지로입구</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>을지로입구</t>
+          <t>을지로3가</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>을지로3가</t>
+          <t>을지로4가</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>을지로4가</t>
+          <t>동대문역사문화공원</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>동대문역사문화공원</t>
+          <t>신당</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>신당</t>
+          <t>상왕십리</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>상왕십리</t>
+          <t>왕십리</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>왕십리</t>
+          <t>한양대</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>한양대</t>
+          <t>뚝섬</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>뚝섬</t>
+          <t>성수</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>성수</t>
+          <t>건대입구</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>건대입구</t>
+          <t>구의</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>구의</t>
+          <t>강변</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>강변</t>
+          <t>잠실나루</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>잠실나루</t>
+          <t>잠실</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>잠실</t>
+          <t>잠실새내</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>잠실새내</t>
+          <t>종합운동장</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>종합운동장</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>선릉</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>선릉</t>
+          <t>역삼</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>역삼</t>
+          <t>강남</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>강남</t>
+          <t>교대</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>교대</t>
+          <t>서초</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>서초</t>
+          <t>방배</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>방배</t>
+          <t>사당</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>사당</t>
+          <t>낙성대</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>낙성대</t>
+          <t>서울대입구</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>서울대입구</t>
+          <t>봉천</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>봉천</t>
+          <t>신림</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>신림</t>
+          <t>신대방</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>신대방</t>
+          <t>구로디지털단지</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>구로디지털단지</t>
+          <t>대림</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>대림</t>
+          <t>신도림</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>신도림</t>
+          <t>문래</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>문래</t>
+          <t>영등포구청</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>영등포구청</t>
+          <t>당산</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>당산</t>
+          <t>합정</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>합정</t>
+          <t>홍대입구</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>홍대입구</t>
+          <t>신촌</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>신촌</t>
+          <t>이대</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>이대</t>
+          <t>아현</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>아현</t>
+          <t>충정로</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>충정로</t>
+          <t>용답</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>용답</t>
+          <t>신답</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>신답</t>
+          <t>용두</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>용두</t>
+          <t>도림천</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>신설동</t>
+          <t>양천구청</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>도림천</t>
+          <t>신정네거리</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,19 +1144,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>양천구청</t>
+          <t>지축</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>신정네거리</t>
+          <t>구파발</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,19 +1168,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>지축</t>
+          <t>연신내</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>구파발</t>
+          <t>불광</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>연신내</t>
+          <t>녹번</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>불광</t>
+          <t>홍제</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>녹번</t>
+          <t>무악재</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>홍제</t>
+          <t>독립문</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>무악재</t>
+          <t>경복궁</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>독립문</t>
+          <t>안국</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>경복궁</t>
+          <t>충무로</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>안국</t>
+          <t>동대입구</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>종로3가</t>
+          <t>약수</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>을지로3가</t>
+          <t>금호</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>충무로</t>
+          <t>옥수</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>동대입구</t>
+          <t>압구정</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>약수</t>
+          <t>신사</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>금호</t>
+          <t>잠원</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>옥수</t>
+          <t>고속터미널</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>압구정</t>
+          <t>남부터미널</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>신사</t>
+          <t>양재</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>잠원</t>
+          <t>매봉</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>고속터미널</t>
+          <t>도곡</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>교대</t>
+          <t>대치</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>남부터미널</t>
+          <t>학여울</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>양재</t>
+          <t>대청</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>매봉</t>
+          <t>일원</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>도곡</t>
+          <t>수서</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>대치</t>
+          <t>가락시장</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>학여울</t>
+          <t>경찰병원</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>대청</t>
+          <t>오금</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>일원</t>
+          <t>당고개</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>수서</t>
+          <t>상계</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>가락시장</t>
+          <t>노원</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>경찰병원</t>
+          <t>창동</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>오금</t>
+          <t>쌍문</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>당고개</t>
+          <t>수유</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>상계</t>
+          <t>미아</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>노원</t>
+          <t>미아사거리</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>창동</t>
+          <t>길음</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>쌍문</t>
+          <t>성신여대입구</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>수유</t>
+          <t>한성대입구</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>미아</t>
+          <t>혜화</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>미아사거리</t>
+          <t>명동</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>길음</t>
+          <t>회현</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>성신여대입구</t>
+          <t>숙대입구</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>한성대입구</t>
+          <t>삼각지</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>혜화</t>
+          <t>신용산</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>동대문</t>
+          <t>이촌</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>동대문역사문화공원</t>
+          <t>동작</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>충무로</t>
+          <t>총신대입구</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>명동</t>
+          <t>남태령</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>회현</t>
+          <t>방화</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>개화산</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>숙대입구</t>
+          <t>김포공항</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>삼각지</t>
+          <t>송정</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>신용산</t>
+          <t>마곡</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>이촌</t>
+          <t>발산</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>동작</t>
+          <t>우장산</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>총신대입구</t>
+          <t>화곡</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>사당</t>
+          <t>까치산</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>남태령</t>
+          <t>신정</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>방화</t>
+          <t>목동</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>개화산</t>
+          <t>오목교</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>김포공항</t>
+          <t>양평</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>송정</t>
+          <t>영등포시장</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>마곡</t>
+          <t>신길</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>발산</t>
+          <t>여의도</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>우장산</t>
+          <t>여의나루</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>화곡</t>
+          <t>마포</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>까치산</t>
+          <t>공덕</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>신정</t>
+          <t>애오개</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>목동</t>
+          <t>서대문</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>오목교</t>
+          <t>광화문</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>양평</t>
+          <t>청구</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>영등포구청</t>
+          <t>신금호</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>영등포시장</t>
+          <t>행당</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>신길</t>
+          <t>마장</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>여의도</t>
+          <t>답십리</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>여의나루</t>
+          <t>장한평</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>마포</t>
+          <t>군자</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>공덕</t>
+          <t>아차산</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>애오개</t>
+          <t>광나루</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>충정로</t>
+          <t>천호</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>서대문</t>
+          <t>강동</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>광화문</t>
+          <t>길동</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>종로3가</t>
+          <t>굽은다리</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>을지로4가</t>
+          <t>명일</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>동대문역사문화공원</t>
+          <t>고덕</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>청구</t>
+          <t>상일동</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>신금호</t>
+          <t>둔촌동</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>행당</t>
+          <t>올림픽공원</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>왕십리</t>
+          <t>방이</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>마장</t>
+          <t>개롱</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>답십리</t>
+          <t>거여</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>장한평</t>
+          <t>강일</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,55 +2296,55 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>군자</t>
+          <t>미사</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>아차산</t>
+          <t>하남풍산</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>광나루</t>
+          <t>하남시청</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>천호</t>
+          <t>하남검단산</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>강동</t>
+          <t>마천</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>길동</t>
+          <t>응암</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>굽은다리</t>
+          <t>역촌</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>명일</t>
+          <t>독바위</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>고덕</t>
+          <t>구산</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>상일동</t>
+          <t>새절</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>둔촌동</t>
+          <t>증산</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>올림픽공원</t>
+          <t>디지털미디어시티</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>방이</t>
+          <t>월드컵경기장</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>오금</t>
+          <t>마포구청</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>개롱</t>
+          <t>망원</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>거여</t>
+          <t>상수</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>강일</t>
+          <t>광흥창</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,55 +2500,55 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>미사</t>
+          <t>대흥</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>하남풍산</t>
+          <t>효창공원앞</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>하남시청</t>
+          <t>녹사평</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>하남검단산</t>
+          <t>이태원</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>마천</t>
+          <t>한강진</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>응암</t>
+          <t>버티고개</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>역촌</t>
+          <t>창신</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>불광</t>
+          <t>보문</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>독바위</t>
+          <t>안암</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>연신내</t>
+          <t>고려대</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>구산</t>
+          <t>월곡</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>새절</t>
+          <t>상월곡</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>증산</t>
+          <t>돌곶이</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>디지털미디어시티</t>
+          <t>석계</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>월드컵경기장</t>
+          <t>태릉입구</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>마포구청</t>
+          <t>화랑대</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>망원</t>
+          <t>봉화산</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>합정</t>
+          <t>신내</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,19 +2716,19 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>상수</t>
+          <t>장암</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>광흥창</t>
+          <t>도봉산</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>대흥</t>
+          <t>수락산</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>공덕</t>
+          <t>마들</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>효창공원앞</t>
+          <t>중계</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>삼각지</t>
+          <t>하계</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>녹사평</t>
+          <t>공릉</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>이태원</t>
+          <t>먹골</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>한강진</t>
+          <t>중화</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>버티고개</t>
+          <t>상봉</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>약수</t>
+          <t>면목</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>청구</t>
+          <t>사가정</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>신당</t>
+          <t>용마산</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>동묘앞</t>
+          <t>중곡</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>창신</t>
+          <t>어린이대공원</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>보문</t>
+          <t>자양</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>안암</t>
+          <t>청담</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>고려대</t>
+          <t>강남구청</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>월곡</t>
+          <t>학동</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>상월곡</t>
+          <t>논현</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>돌곶이</t>
+          <t>반포</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>석계</t>
+          <t>내방</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>태릉입구</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2992,7 +2992,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>화랑대</t>
+          <t>숭실대입구</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>봉화산</t>
+          <t>상도</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>신내</t>
+          <t>장승배기</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3028,19 +3028,19 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>장암</t>
+          <t>신대방삼거리</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>도봉산</t>
+          <t>보라매</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3052,7 +3052,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>수락산</t>
+          <t>신풍</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>마들</t>
+          <t>남구로</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>노원</t>
+          <t>가산디지털단지</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3088,31 +3088,31 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>중계</t>
+          <t>철산</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>하계</t>
+          <t>광명사거리</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>공릉</t>
+          <t>천왕</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>태릉입구</t>
+          <t>온수</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3136,7 +3136,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>먹골</t>
+          <t>암사</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>중화</t>
+          <t>강동구청</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>상봉</t>
+          <t>몽촌토성</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>면목</t>
+          <t>석촌</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>사가정</t>
+          <t>송파</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3196,7 +3196,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>용마산</t>
+          <t>문정</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>중곡</t>
+          <t>장지</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>군자</t>
+          <t>복정</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3232,427 +3232,427 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>어린이대공원</t>
+          <t>남위례</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>건대입구</t>
+          <t>산성</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>자양</t>
+          <t>남한산성입구</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>청담</t>
+          <t>단대오거리</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>강남구청</t>
+          <t>신흥</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>학동</t>
+          <t>수진</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>논현</t>
+          <t>모란</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>반포</t>
+          <t>판교</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>고속터미널</t>
+          <t>이매</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>내방</t>
+          <t>삼동</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>총신대입구</t>
+          <t>경기광주</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>남성</t>
+          <t>초월</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>숭실대입구</t>
+          <t>곤지암</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>상도</t>
+          <t>신둔도예촌</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>장승배기</t>
+          <t>이천</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>신대방삼거리</t>
+          <t>부발</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>보라매</t>
+          <t>세종대왕릉</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>신풍</t>
+          <t>여주</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>대림</t>
+          <t>수원</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>남구로</t>
+          <t>세류</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>가산디지털단지</t>
+          <t>병점</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>철산</t>
+          <t>서동탄</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>광명사거리</t>
+          <t>세마</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>천왕</t>
+          <t>오산대</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>온수</t>
+          <t>오산</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>암사</t>
+          <t>진위</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>천호</t>
+          <t>송탄</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>강동구청</t>
+          <t>지제</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>몽촌토성</t>
+          <t>서정리</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>잠실</t>
+          <t>평택</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>석촌</t>
+          <t>명학</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>송파</t>
+          <t>광명</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>가락시장</t>
+          <t>석수</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>문정</t>
+          <t>관악</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>장지</t>
+          <t>안양</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>복정</t>
+          <t>남영</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3664,91 +3664,91 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>남위례</t>
+          <t>용산</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>산성</t>
+          <t>노량진</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>남한산성입구</t>
+          <t>대방</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>단대오거리</t>
+          <t>영등포</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>신흥</t>
+          <t>구로</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>수진</t>
+          <t>독산</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>모란</t>
+          <t>금천구청</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>판교</t>
+          <t>금정</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3760,7 +3760,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>이매</t>
+          <t>군포</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3772,271 +3772,271 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>삼동</t>
+          <t>당정</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>경기광주</t>
+          <t>의왕</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>초월</t>
+          <t>성균관대</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>곤지암</t>
+          <t>화서</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>신둔도예촌</t>
+          <t>회기</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>이천</t>
+          <t>외대앞</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>부발</t>
+          <t>신이문</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>세종대왕릉</t>
+          <t>광운대</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>여주</t>
+          <t>월계</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>수원</t>
+          <t>녹천</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>세류</t>
+          <t>방학</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>병점</t>
+          <t>도봉</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>서동탄</t>
+          <t>망월사</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>세마</t>
+          <t>회룡</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>오산대</t>
+          <t>의정부</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>오산</t>
+          <t>가능</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>진위</t>
+          <t>녹양</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>송탄</t>
+          <t>양주</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>지제</t>
+          <t>덕계</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>서정리</t>
+          <t>덕정</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>평택</t>
+          <t>지행</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>명학</t>
+          <t>동두천중앙</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>광명</t>
+          <t>보산</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4048,91 +4048,91 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>석수</t>
+          <t>동두천</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>관악</t>
+          <t>소요산</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>안양</t>
+          <t>청산</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>남영</t>
+          <t>전곡</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>용산</t>
+          <t>연천</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>노량진</t>
+          <t>임진강</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>대방</t>
+          <t>운천</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>신길</t>
+          <t>서울역</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -4144,7 +4144,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>영등포</t>
+          <t>가좌</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -4156,7 +4156,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>신도림</t>
+          <t>서강대</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>구로</t>
+          <t>수색</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -4180,127 +4180,127 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>가산디지털단지</t>
+          <t>한국항공대</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>독산</t>
+          <t>강매</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>금천구청</t>
+          <t>행신</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>금정</t>
+          <t>능곡</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>군포</t>
+          <t>곡산</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>당정</t>
+          <t>백마</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>의왕</t>
+          <t>풍산</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>성균관대</t>
+          <t>일산</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>화서</t>
+          <t>탄현</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>회기</t>
+          <t>야당</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>외대앞</t>
+          <t>중랑</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -4312,7 +4312,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>신이문</t>
+          <t>망우</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -4324,7 +4324,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>석계</t>
+          <t>양원</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -4336,91 +4336,91 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>광운대</t>
+          <t>지평</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>월계</t>
+          <t>구리</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>녹천</t>
+          <t>도농</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>창동</t>
+          <t>양정</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>방학</t>
+          <t>덕소</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>도봉</t>
+          <t>도심</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>도봉산</t>
+          <t>팔당</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>망월사</t>
+          <t>운길산</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -4432,91 +4432,91 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>회룡</t>
+          <t>양수</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>의정부</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>가능</t>
+          <t>국수</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>녹양</t>
+          <t>아신</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>양주</t>
+          <t>오빈</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>덕계</t>
+          <t>원덕</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>덕정</t>
+          <t>용문</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기동부</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>지행</t>
+          <t>운정</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>동두천중앙</t>
+          <t>금릉</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>보산</t>
+          <t>금촌</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>동두천</t>
+          <t>월롱</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -4564,7 +4564,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>소요산</t>
+          <t>파주</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4576,7 +4576,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>청산</t>
+          <t>문산</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -4588,7 +4588,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>전곡</t>
+          <t>대곡</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -4600,43 +4600,43 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>연천</t>
+          <t>서빙고</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>임진강</t>
+          <t>한남</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>운천</t>
+          <t>응봉</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>서울역</t>
+          <t>구일</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -4648,7 +4648,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>신촌</t>
+          <t>개봉</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>가좌</t>
+          <t>오류동</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -4672,199 +4672,199 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>용산</t>
+          <t>역곡</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>효창공원앞</t>
+          <t>소사</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>공덕</t>
+          <t>부천</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>서강대</t>
+          <t>중동</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>홍대입구</t>
+          <t>송내</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>디지털미디어시티</t>
+          <t>부개</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>수색</t>
+          <t>부평</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>한국항공대</t>
+          <t>백운</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>강매</t>
+          <t>동암</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>행신</t>
+          <t>간석</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>능곡</t>
+          <t>주안</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>곡산</t>
+          <t>도화</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>백마</t>
+          <t>제물포</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>풍산</t>
+          <t>도원</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>일산</t>
+          <t>동인천</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>탄현</t>
+          <t>인천</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>야당</t>
+          <t>갈매</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -4876,103 +4876,103 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>왕십리</t>
+          <t>별내</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>청량리</t>
+          <t>퇴계원</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>회기</t>
+          <t>사릉</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>중랑</t>
+          <t>금곡</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>상봉</t>
+          <t>평내호평</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>망우</t>
+          <t>천마산</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>양원</t>
+          <t>마석</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>지평</t>
+          <t>대성리</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>구리</t>
+          <t>청평</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -4984,7 +4984,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>도농</t>
+          <t>상천</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>양정</t>
+          <t>가평</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -5008,7 +5008,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>덕소</t>
+          <t>양촌</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -5020,7 +5020,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>도심</t>
+          <t>구래</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -5032,7 +5032,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>팔당</t>
+          <t>마산</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>운길산</t>
+          <t>장기</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -5056,103 +5056,103 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>양수</t>
+          <t>운양</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>걸포북변</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>국수</t>
+          <t>사우</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>아신</t>
+          <t>풍무</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>오빈</t>
+          <t>고촌</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>양평</t>
+          <t>까치울</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>원덕</t>
+          <t>부천종합운동장</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>용문</t>
+          <t>춘의</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>경기동부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>운정</t>
+          <t>신중동</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -5164,7 +5164,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>금릉</t>
+          <t>부천시청</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>금촌</t>
+          <t>상동</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -5188,67 +5188,67 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>월롱</t>
+          <t>삼산체육관</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>파주</t>
+          <t>굴포천</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>문산</t>
+          <t>부평구청</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>대곡</t>
+          <t>산곡</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>이촌</t>
+          <t>석남</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>서빙고</t>
+          <t>서울숲</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -5260,7 +5260,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>한남</t>
+          <t>압구정로데오</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -5272,7 +5272,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>옥수</t>
+          <t>선정릉</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>응봉</t>
+          <t>한티</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -5296,7 +5296,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>구일</t>
+          <t>구룡</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>개봉</t>
+          <t>개포동</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -5320,7 +5320,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>오류동</t>
+          <t>대모산입구</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -5332,247 +5332,247 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>온수</t>
+          <t>가천대</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>역곡</t>
+          <t>태평</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>소사</t>
+          <t>야탑</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>부천</t>
+          <t>서현</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>중동</t>
+          <t>수내</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>송내</t>
+          <t>정자</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>부개</t>
+          <t>미금</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>부평</t>
+          <t>오리</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>백운</t>
+          <t>죽전</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>동암</t>
+          <t>보정</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>간석</t>
+          <t>구성</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>주안</t>
+          <t>신갈</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>도화</t>
+          <t>기흥</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>제물포</t>
+          <t>상갈</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>도원</t>
+          <t>청명</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>동인천</t>
+          <t>영통</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>망포</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>회기</t>
+          <t>매탄권선</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>청량리</t>
+          <t>수원시청</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>중랑</t>
+          <t>매교</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>상봉</t>
+          <t>개화</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -5584,7 +5584,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>망우</t>
+          <t>공항시장</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -5596,7 +5596,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>신내</t>
+          <t>신방화</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -5608,199 +5608,199 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>갈매</t>
+          <t>마곡나루</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>별내</t>
+          <t>양천향교</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>퇴계원</t>
+          <t>가양</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>사릉</t>
+          <t>증미</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>금곡</t>
+          <t>등촌</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>평내호평</t>
+          <t>염창</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>천마산</t>
+          <t>신목동</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>마석</t>
+          <t>선유도</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>대성리</t>
+          <t>국회의사당</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>청평</t>
+          <t>샛강</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>상천</t>
+          <t>노들</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>가평</t>
+          <t>흑석</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>양촌</t>
+          <t>구반포</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>구래</t>
+          <t>신반포</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>마산</t>
+          <t>사평</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>장기</t>
+          <t>신논현</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>운양</t>
+          <t>원종</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -5812,7 +5812,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>걸포북변</t>
+          <t>소새울</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -5824,7 +5824,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>사우</t>
+          <t>시흥대야</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -5836,7 +5836,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>풍무</t>
+          <t>신천</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -5848,7 +5848,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>고촌</t>
+          <t>신현</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -5860,19 +5860,19 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>김포공항</t>
+          <t>시흥시청</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>까치울</t>
+          <t>시흥능곡</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>부천종합운동장</t>
+          <t>달미</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>춘의</t>
+          <t>선부</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -5908,7 +5908,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>신중동</t>
+          <t>초지</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -5920,7 +5920,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>부천시청</t>
+          <t>시우</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -5932,7 +5932,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>상동</t>
+          <t>원시</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -5944,67 +5944,67 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>삼산체육관</t>
+          <t>언주</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>굴포천</t>
+          <t>삼성중앙</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>부평구청</t>
+          <t>봉은사</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>산곡</t>
+          <t>삼전</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>석남</t>
+          <t>석촌고분</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>청량리</t>
+          <t>송파나루</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -6016,7 +6016,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>왕십리</t>
+          <t>한성백제</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -6028,7 +6028,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>서울숲</t>
+          <t>둔촌오륜</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -6040,7 +6040,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>압구정로데오</t>
+          <t>중앙보훈병원</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -6052,7 +6052,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>강남구청</t>
+          <t>서울지방병무청</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -6064,7 +6064,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>선정릉</t>
+          <t>보라매공원</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -6076,7 +6076,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>선릉</t>
+          <t>보라매병원</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -6088,7 +6088,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>한티</t>
+          <t>당곡</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>도곡</t>
+          <t>서원</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -6112,7 +6112,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>구룡</t>
+          <t>서울대벤처타운</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>개포동</t>
+          <t>관악산</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -6136,799 +6136,799 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>대모산입구</t>
+          <t>고색</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>수서</t>
+          <t>오목천</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>복정</t>
+          <t>어천</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>가천대</t>
+          <t>야목</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>태평</t>
+          <t>사리</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>모란</t>
+          <t>한대앞</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>야탑</t>
+          <t>중앙</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>이매</t>
+          <t>고잔</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>서현</t>
+          <t>안산</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>수내</t>
+          <t>신길온천</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>정자</t>
+          <t>정왕</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>미금</t>
+          <t>오이도</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>오리</t>
+          <t>달월</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>죽전</t>
+          <t>월곶</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>보정</t>
+          <t>소래포구</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>구성</t>
+          <t>인천논현</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>신갈</t>
+          <t>호구포</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>기흥</t>
+          <t>남동인더스파크</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>상갈</t>
+          <t>원인재</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>청명</t>
+          <t>연수</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>영통</t>
+          <t>송도</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>망포</t>
+          <t>인하대</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>매탄권선</t>
+          <t>숭의</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>수원시청</t>
+          <t>신포</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>매교</t>
+          <t>양재시민의숲</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>수원</t>
+          <t>청계산입구</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>개화</t>
+          <t>동천</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>김포공항</t>
+          <t>수지구청</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>공항시장</t>
+          <t>성복</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>신방화</t>
+          <t>상현</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>마곡나루</t>
+          <t>광교중앙</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>양천향교</t>
+          <t>광교</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>가양</t>
+          <t>선바위</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>증미</t>
+          <t>경마공원</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>등촌</t>
+          <t>대공원</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>염창</t>
+          <t>과천</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>신목동</t>
+          <t>정부과천청사</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>선유도</t>
+          <t>인덕원</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>당산</t>
+          <t>평촌</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>국회의사당</t>
+          <t>범계</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>여의도</t>
+          <t>산본</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>샛강</t>
+          <t>수리산</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>노량진</t>
+          <t>대야미</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기중부</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>노들</t>
+          <t>반월</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>흑석</t>
+          <t>상록수</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>동작</t>
+          <t>강남대</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>구반포</t>
+          <t>지석</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>신반포</t>
+          <t>어정</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>고속터미널</t>
+          <t>동백</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>사평</t>
+          <t>초당</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>신논현</t>
+          <t>삼가</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>김포공항</t>
+          <t>시청·용인대</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>원종</t>
+          <t>명지대</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>부천종합운동장</t>
+          <t>김량장</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>소사</t>
+          <t>운동장·송담대</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>소새울</t>
+          <t>고진</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>시흥대야</t>
+          <t>보평</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>신천</t>
+          <t>둔전</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>신현</t>
+          <t>전대·에버랜드</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>경기남부</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>시흥시청</t>
+          <t>북한산우이</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>시흥능곡</t>
+          <t>솔밭공원</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>달미</t>
+          <t>4.19민주묘지</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>선부</t>
+          <t>가오리</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>초지</t>
+          <t>화계</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>시우</t>
+          <t>삼양</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>원시</t>
+          <t>삼양사거리</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>서울</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>언주</t>
+          <t>솔샘</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -6940,7 +6940,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>선정릉</t>
+          <t>북한산보국문</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -6952,7 +6952,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>삼성중앙</t>
+          <t>정릉</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -6964,439 +6964,439 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>봉은사</t>
+          <t>발곡</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>종합운동장</t>
+          <t>범골</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>삼전</t>
+          <t>경전철의정부</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>석촌고분</t>
+          <t>의정부시청</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>석촌</t>
+          <t>흥선</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>송파나루</t>
+          <t>의정부중앙</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>한성백제</t>
+          <t>동오</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>올림픽공원</t>
+          <t>새말</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>둔촌오륜</t>
+          <t>경기도청북부청사</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>중앙보훈병원</t>
+          <t>효자</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>샛강</t>
+          <t>곤제</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>대방</t>
+          <t>어룡</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>서울지방병무청</t>
+          <t>송산</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>보라매</t>
+          <t>탑석</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>보라매공원</t>
+          <t>계양</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>보라매병원</t>
+          <t>검암</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>당곡</t>
+          <t>청라국제도시</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>신림</t>
+          <t>영종</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>서원</t>
+          <t>운서</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>서울대벤처타운</t>
+          <t>공항화물청사</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>관악산</t>
+          <t>인천공항1터미널</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>고색</t>
+          <t>인천공항2터미널</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>오목천</t>
+          <t>귤현</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>어천</t>
+          <t>박촌</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>야목</t>
+          <t>임학</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>사리</t>
+          <t>계산</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>한대앞</t>
+          <t>경인교대입구</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>중앙</t>
+          <t>작전</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>고잔</t>
+          <t>갈산</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>초지</t>
+          <t>부평시장</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>안산</t>
+          <t>동수</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>신길온천</t>
+          <t>부평삼거리</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>정왕</t>
+          <t>간석오거리</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>오이도</t>
+          <t>인천시청</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>달월</t>
+          <t>예술회관</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>월곶</t>
+          <t>인천터미널</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>소래포구</t>
+          <t>문학경기장</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -7408,7 +7408,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>인천논현</t>
+          <t>선학</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -7420,7 +7420,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>호구포</t>
+          <t>신연수</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -7432,7 +7432,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>남동인더스파크</t>
+          <t>동춘</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -7444,7 +7444,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>원인재</t>
+          <t>동막</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -7456,7 +7456,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>연수</t>
+          <t>캠퍼스타운</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -7468,7 +7468,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>송도</t>
+          <t>테크노파크</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -7480,7 +7480,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>인하대</t>
+          <t>지식정보단지</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -7492,7 +7492,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>숭의</t>
+          <t>인천대입구</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -7504,7 +7504,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>신포</t>
+          <t>센트럴파크</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -7516,7 +7516,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>국제업무지구</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -7528,331 +7528,331 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>신사</t>
+          <t>송도달빛축제공원</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>논현</t>
+          <t>검단오류</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>신논현</t>
+          <t>왕길</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>강남</t>
+          <t>검단사거리</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>양재</t>
+          <t>마전</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>양재시민의숲</t>
+          <t>완정</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>청계산입구</t>
+          <t>독정</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>판교</t>
+          <t>검바위</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>정자</t>
+          <t>아시아드경기장</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>미금</t>
+          <t>서구청</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>동천</t>
+          <t>가정</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>수지구청</t>
+          <t>가정중앙시장</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>성복</t>
+          <t>서부여성회관</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>상현</t>
+          <t>인천가좌</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>광교중앙</t>
+          <t>가재울</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>광교</t>
+          <t>주안국가산단</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>선바위</t>
+          <t>시민공원</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>경마공원</t>
+          <t>석바위시장</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>대공원</t>
+          <t>석천사거리</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>과천</t>
+          <t>모래내시장</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>정부과천청사</t>
+          <t>만수</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>인덕원</t>
+          <t>남동구청</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>평촌</t>
+          <t>인천대공원</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>범계</t>
+          <t>운연</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>산본</t>
+          <t>삼송</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>수리산</t>
+          <t>원흥</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>대야미</t>
+          <t>원당</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>경기중부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>반월</t>
+          <t>화정</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -7864,7 +7864,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>상록수</t>
+          <t>백석</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>중앙</t>
+          <t>마두</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>한대앞</t>
+          <t>정발산</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -7900,7 +7900,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>고잔</t>
+          <t>주엽</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -7912,7 +7912,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>초지</t>
+          <t>대화</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -7924,1654 +7924,106 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>안산</t>
+          <t>인천국제공항</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>신길온천</t>
+          <t>장기주차장</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>정왕</t>
+          <t>합동청사</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>오이도</t>
+          <t>파라다이스시티</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>경기북서부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>기흥</t>
+          <t>워터파크</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>강남대</t>
+          <t>용유</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>인천</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>지석</t>
+          <t>별내별가람</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>어정</t>
+          <t>오남</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>경기남부</t>
+          <t>경기북서부</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>동백</t>
+          <t>진접</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>초당</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>삼가</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>시청·용인대</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>명지대</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>김량장</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>운동장·송담대</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>고진</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>보평</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>둔전</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>전대·에버랜드</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>경기남부</t>
-        </is>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>북한산우이</t>
-        </is>
-      </c>
-      <c r="B644" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>솔밭공원</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>4.19민주묘지</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>가오리</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>화계</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>삼양</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>삼양사거리</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>솔샘</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>북한산보국문</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>정릉</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>성신여대입구</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>보문</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>신설동</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>발곡</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>회룡</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>범골</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>경전철의정부</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>의정부시청</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>흥선</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>의정부중앙</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>동오</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>새말</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>경기도청북부청사</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>효자</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>곤제</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>어룡</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>송산</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>탑석</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>공덕</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>홍대입구</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>디지털미디어시티</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>마곡나루</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>김포공항</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>계양</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>검암</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>청라국제도시</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>영종</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>운서</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>공항화물청사</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>인천공항1터미널</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>인천공항2터미널</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>계양</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>귤현</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>박촌</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>임학</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>계산</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>경인교대입구</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>작전</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>갈산</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>부평구청</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>부평시장</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>부평</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>동수</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>부평삼거리</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>간석오거리</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>인천시청</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>예술회관</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>인천터미널</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>문학경기장</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>선학</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>신연수</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>원인재</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>동춘</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>동막</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>캠퍼스타운</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>테크노파크</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>지식정보단지</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>인천대입구</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>센트럴파크</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>국제업무지구</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>송도달빛축제공원</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>검단오류</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>왕길</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>검단사거리</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>마전</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>완정</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>독정</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>검암</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>검바위</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>아시아드경기장</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>서구청</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>가정</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>가정중앙시장</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>석남</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>서부여성회관</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>인천가좌</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>가재울</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>주안국가산단</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>주안</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>시민공원</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>석바위시장</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>인천시청</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>석천사거리</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>모래내시장</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>만수</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>남동구청</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>인천대공원</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>운연</t>
-        </is>
-      </c>
-      <c r="B742" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>지축</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>삼송</t>
-        </is>
-      </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>원흥</t>
-        </is>
-      </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>원당</t>
-        </is>
-      </c>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>화정</t>
-        </is>
-      </c>
-      <c r="B747" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>대곡</t>
-        </is>
-      </c>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>백석</t>
-        </is>
-      </c>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>마두</t>
-        </is>
-      </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>정발산</t>
-        </is>
-      </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>주엽</t>
-        </is>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>대화</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>인천국제공항</t>
-        </is>
-      </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>장기주차장</t>
-        </is>
-      </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>합동청사</t>
-        </is>
-      </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>파라다이스시티</t>
-        </is>
-      </c>
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>워터파크</t>
-        </is>
-      </c>
-      <c r="B758" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>용유</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>인천</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>별내별가람</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>오남</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>경기북서부</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>진접</t>
-        </is>
-      </c>
-      <c r="B762" t="inlineStr">
         <is>
           <t>경기북서부</t>
         </is>
